--- a/铁路维护系统-进度跟踪表.xlsx
+++ b/铁路维护系统-进度跟踪表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JSP\railway_maintain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JSP\maintainance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD8589A-D607-4DAC-B104-61430A0DCB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7659948-02E0-41C6-8317-4703E131D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4260" yWindow="1230" windowWidth="15240" windowHeight="13935" xr2:uid="{3D8A2133-30CE-4870-B409-CE318063EE47}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,14 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>商品管理（后台）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单管理（后台）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,6 +143,30 @@
   </si>
   <si>
     <t>田伟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员管理（后台）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王宇航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,12 +409,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -414,6 +424,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B749A7-7BC9-4620-B45C-9765C645ADBD}">
-  <dimension ref="A1:BE22"/>
+  <dimension ref="A1:BE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,123 +761,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="25"/>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="25"/>
-      <c r="AQ1" s="25"/>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="25"/>
-      <c r="AT1" s="25"/>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="25"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="25"/>
+      <c r="A1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
     </row>
     <row r="2" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="27"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
+      <c r="AY2" s="25"/>
+      <c r="AZ2" s="25"/>
+      <c r="BA2" s="25"/>
+      <c r="BB2" s="25"/>
+      <c r="BC2" s="25"/>
+      <c r="BD2" s="25"/>
+      <c r="BE2" s="25"/>
     </row>
     <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
@@ -885,22 +898,22 @@
       <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="19">
         <v>12</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="19">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19">
         <v>1</v>
       </c>
-      <c r="R3" s="20"/>
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
       <c r="U3" s="20"/>
@@ -929,11 +942,11 @@
       <c r="AR3" s="20"/>
       <c r="AS3" s="20"/>
       <c r="AT3" s="20"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="22"/>
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="22">
+        <v>2</v>
+      </c>
       <c r="AX3" s="22"/>
       <c r="AY3" s="22"/>
       <c r="AZ3" s="22"/>
@@ -941,7 +954,7 @@
       <c r="BB3" s="22"/>
       <c r="BC3" s="22"/>
       <c r="BD3" s="22"/>
-      <c r="BE3" s="23"/>
+      <c r="BE3" s="22"/>
     </row>
     <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
@@ -981,127 +994,127 @@
         <v>30</v>
       </c>
       <c r="Q4" s="2">
+        <v>31</v>
+      </c>
+      <c r="R4" s="2">
         <v>1</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>2</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>3</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>4</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>5</v>
       </c>
-      <c r="V4" s="2">
+      <c r="W4" s="2">
         <v>6</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>7</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <v>8</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Z4" s="2">
         <v>9</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AA4" s="2">
         <v>10</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AB4" s="2">
         <v>11</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AC4" s="2">
         <v>12</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AD4" s="2">
         <v>13</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AE4" s="2">
         <v>14</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AF4" s="2">
         <v>15</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AG4" s="2">
         <v>16</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AH4" s="2">
         <v>17</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AI4" s="2">
         <v>18</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AJ4" s="2">
         <v>19</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AK4" s="2">
         <v>20</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AL4" s="2">
         <v>21</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AM4" s="2">
         <v>22</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AN4" s="2">
         <v>23</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AO4" s="2">
         <v>24</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AP4" s="2">
         <v>25</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AQ4" s="2">
         <v>26</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AR4" s="2">
         <v>27</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AS4" s="2">
         <v>28</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AT4" s="2">
         <v>29</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AU4" s="2">
         <v>30</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AV4" s="2">
         <v>31</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AW4" s="2">
         <v>1</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AX4" s="2">
         <v>2</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AY4" s="2">
         <v>3</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AZ4" s="2">
         <v>4</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="BA4" s="2">
         <v>5</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BB4" s="2">
         <v>6</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BC4" s="2">
         <v>7</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BD4" s="2">
         <v>8</v>
       </c>
-      <c r="BD4" s="2">
+      <c r="BE4" s="2">
         <v>9</v>
-      </c>
-      <c r="BE4" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1174,7 +1187,9 @@
       <c r="B6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D6" s="5">
         <v>44543</v>
       </c>
@@ -1244,20 +1259,22 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
         <v>44551</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <v>44555</v>
+      </c>
       <c r="F7" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
@@ -1376,22 +1393,24 @@
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5">
         <v>44553</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5">
+        <v>44557</v>
+      </c>
       <c r="F9" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -1445,25 +1464,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5">
         <v>44553</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="3">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
+      <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
@@ -1574,9 +1593,11 @@
         <v>3.1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
@@ -1637,9 +1658,11 @@
         <v>3.2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3"/>
@@ -1700,9 +1723,11 @@
         <v>3.3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
@@ -1763,9 +1788,11 @@
         <v>3.4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
@@ -1826,9 +1853,11 @@
         <v>3.5</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="3"/>
@@ -1886,14 +1915,16 @@
     </row>
     <row r="17" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="3"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1948,13 +1979,15 @@
       <c r="BE17" s="2"/>
     </row>
     <row r="18" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2"/>
+      <c r="A18" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="3"/>
@@ -2011,16 +2044,18 @@
       <c r="BE18" s="2"/>
     </row>
     <row r="19" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>5</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="A19" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -2074,16 +2109,16 @@
       <c r="BE19" s="2"/>
     </row>
     <row r="20" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="9"/>
+      <c r="A20" s="2">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
@@ -2137,14 +2172,14 @@
       <c r="BE20" s="2"/>
     </row>
     <row r="21" spans="1:57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>5.2</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>15</v>
+      <c r="A21" s="11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
       <c r="G21" s="12"/>
@@ -2175,7 +2210,7 @@
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
       <c r="AH21" s="15"/>
-      <c r="AI21" s="16"/>
+      <c r="AI21" s="15"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
@@ -2200,16 +2235,203 @@
       <c r="BE21" s="2"/>
     </row>
     <row r="22" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="8">
+        <v>5</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+      <c r="AH23" s="15"/>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="R3:AV3"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="Q3:AU3"/>
-    <mergeCell ref="AV3:BE3"/>
-    <mergeCell ref="G3:P3"/>
     <mergeCell ref="A1:AX1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A2:C2"/>
@@ -2219,6 +2441,8 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="AW3:BE3"/>
+    <mergeCell ref="G3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/铁路维护系统-进度跟踪表.xlsx
+++ b/铁路维护系统-进度跟踪表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JSP\maintainance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7659948-02E0-41C6-8317-4703E131D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263D7A6-8B67-4E63-8D37-3CF70E31BB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1230" windowWidth="15240" windowHeight="13935" xr2:uid="{3D8A2133-30CE-4870-B409-CE318063EE47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D8A2133-30CE-4870-B409-CE318063EE47}"/>
   </bookViews>
   <sheets>
     <sheet name="项目进度跟踪表" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,35 +399,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +749,7 @@
   <dimension ref="A1:BE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,141 +764,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="24"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
     </row>
     <row r="2" spans="1:57" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="25"/>
-      <c r="AO2" s="25"/>
-      <c r="AP2" s="25"/>
-      <c r="AQ2" s="25"/>
-      <c r="AR2" s="25"/>
-      <c r="AS2" s="25"/>
-      <c r="AT2" s="25"/>
-      <c r="AU2" s="25"/>
-      <c r="AV2" s="25"/>
-      <c r="AW2" s="25"/>
-      <c r="AX2" s="25"/>
-      <c r="AY2" s="25"/>
-      <c r="AZ2" s="25"/>
-      <c r="BA2" s="25"/>
-      <c r="BB2" s="25"/>
-      <c r="BC2" s="25"/>
-      <c r="BD2" s="25"/>
-      <c r="BE2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+      <c r="AT2" s="26"/>
+      <c r="AU2" s="26"/>
+      <c r="AV2" s="26"/>
+      <c r="AW2" s="26"/>
+      <c r="AX2" s="26"/>
+      <c r="AY2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
+      <c r="BC2" s="26"/>
+      <c r="BD2" s="26"/>
+      <c r="BE2" s="26"/>
     </row>
     <row r="3" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="19">
@@ -944,25 +947,25 @@
       <c r="AT3" s="20"/>
       <c r="AU3" s="20"/>
       <c r="AV3" s="21"/>
-      <c r="AW3" s="22">
+      <c r="AW3" s="27">
         <v>2</v>
       </c>
-      <c r="AX3" s="22"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="22"/>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
-      <c r="BC3" s="22"/>
-      <c r="BD3" s="22"/>
-      <c r="BE3" s="22"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
     </row>
     <row r="4" spans="1:57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="2">
         <v>21</v>
       </c>
@@ -1469,9 +1472,11 @@
       <c r="D10" s="5">
         <v>44553</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5">
+        <v>44561</v>
+      </c>
       <c r="F10" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1483,7 +1488,7 @@
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
       <c r="P10" s="13"/>
-      <c r="Q10" s="15"/>
+      <c r="Q10" s="18"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
@@ -1663,9 +1668,15 @@
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="5">
+        <v>44560</v>
+      </c>
+      <c r="E13" s="5">
+        <v>44563</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1675,10 +1686,10 @@
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
@@ -1728,9 +1739,13 @@
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5">
+        <v>44560</v>
+      </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3">
+        <v>0.25</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1740,7 +1755,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
@@ -1793,9 +1808,15 @@
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
+      <c r="D15" s="5">
+        <v>44560</v>
+      </c>
+      <c r="E15" s="5">
+        <v>44564</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1805,10 +1826,10 @@
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
+      <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
+      <c r="S15" s="18"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
@@ -1858,9 +1879,13 @@
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>44560</v>
+      </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3">
+        <v>0.25</v>
+      </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1870,7 +1895,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
@@ -1923,9 +1948,13 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5">
+        <v>44560</v>
+      </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3">
+        <v>0.75</v>
+      </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1935,7 +1964,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
+      <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
@@ -1982,15 +2011,19 @@
       <c r="A18" s="2">
         <v>3.7</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="17" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="5"/>
+      <c r="D18" s="5">
+        <v>44560</v>
+      </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3">
+        <v>0.25</v>
+      </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -2000,7 +2033,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
+      <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
@@ -2047,15 +2080,21 @@
       <c r="A19" s="2">
         <v>3.8</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="5">
+        <v>44560</v>
+      </c>
+      <c r="E19" s="5">
+        <v>44564</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -2065,10 +2104,10 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>

--- a/铁路维护系统-进度跟踪表.xlsx
+++ b/铁路维护系统-进度跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JSP\maintainance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9263D7A6-8B67-4E63-8D37-3CF70E31BB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5880933-9742-4812-94F7-47206BD46233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D8A2133-30CE-4870-B409-CE318063EE47}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="A1:BE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1603,8 +1603,12 @@
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5">
+        <v>44559</v>
+      </c>
+      <c r="E12" s="5">
+        <v>44563</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -1614,11 +1618,11 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="12"/>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
+      <c r="S12" s="18"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
@@ -1742,9 +1746,11 @@
       <c r="D14" s="5">
         <v>44560</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5">
+        <v>44565</v>
+      </c>
       <c r="F14" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -1759,8 +1765,8 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
@@ -1884,7 +1890,7 @@
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="3">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1899,7 +1905,7 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
@@ -2020,9 +2026,11 @@
       <c r="D18" s="5">
         <v>44560</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5">
+        <v>44565</v>
+      </c>
       <c r="F18" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
@@ -2037,8 +2045,8 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>

--- a/铁路维护系统-进度跟踪表.xlsx
+++ b/铁路维护系统-进度跟踪表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\JSP\maintainance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5880933-9742-4812-94F7-47206BD46233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE35460-1EB7-4E13-9A9C-1A8832A0DBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D8A2133-30CE-4870-B409-CE318063EE47}"/>
+    <workbookView xWindow="4260" yWindow="1230" windowWidth="15240" windowHeight="13935" xr2:uid="{3D8A2133-30CE-4870-B409-CE318063EE47}"/>
   </bookViews>
   <sheets>
     <sheet name="项目进度跟踪表" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B749A7-7BC9-4620-B45C-9765C645ADBD}">
   <dimension ref="A1:BE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1609,7 +1609,9 @@
       <c r="E12" s="5">
         <v>44563</v>
       </c>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1888,9 +1890,11 @@
       <c r="D16" s="5">
         <v>44560</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5">
+        <v>44565</v>
+      </c>
       <c r="F16" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -1906,7 +1910,7 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="18"/>
-      <c r="U16" s="15"/>
+      <c r="U16" s="18"/>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="15"/>
@@ -1957,9 +1961,11 @@
       <c r="D17" s="5">
         <v>44560</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5">
+        <v>44565</v>
+      </c>
       <c r="F17" s="3">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -1974,8 +1980,8 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
@@ -2116,7 +2122,7 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
-      <c r="T19" s="15"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
@@ -2225,8 +2231,12 @@
       <c r="B21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5">
+        <v>44564</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="3"/>
       <c r="G21" s="12"/>
@@ -2242,8 +2252,8 @@
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
@@ -2351,8 +2361,12 @@
       <c r="B23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44565</v>
+      </c>
       <c r="E23" s="14"/>
       <c r="F23" s="9"/>
       <c r="G23" s="12"/>
@@ -2414,8 +2428,12 @@
       <c r="B24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5">
+        <v>44565</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
       <c r="G24" s="12"/>
@@ -2432,7 +2450,7 @@
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
+      <c r="U24" s="18"/>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="15"/>
